--- a/DataTestPractice.xlsx
+++ b/DataTestPractice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>pass</t>
   </si>
